--- a/excel archives/Driver.xlsx
+++ b/excel archives/Driver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\WebscrapingSuite\excel archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B8D1B-26ED-4DAF-9683-D9F943D4CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCC300-0BE1-41B9-AE51-8E460C61B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C54BF3F8-99B9-406B-BF96-3B62A138231B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C54BF3F8-99B9-406B-BF96-3B62A138231B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -252,7 +252,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,27 +568,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F0FD08-A7A1-4E0A-9130-129AC824C8DA}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1"/>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -602,7 +600,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -625,7 +623,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -638,7 +636,7 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -646,7 +644,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>200</v>
       </c>
     </row>
@@ -659,7 +657,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -667,7 +665,7 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -675,7 +673,7 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -683,7 +681,7 @@
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -696,7 +694,7 @@
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -704,7 +702,7 @@
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -712,7 +710,7 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -725,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F411B-4CB9-4C09-B8F7-037402E7102A}">
   <dimension ref="A2:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
